--- a/_Lang_Korean/Lang/KR/Dialog/Drama/loytel.xlsx
+++ b/_Lang_Korean/Lang/KR/Dialog/Drama/loytel.xlsx
@@ -2667,7 +2667,7 @@
 安心してくれ、お前に迷惑をかけるつもりも、拠点の発展の足を引っ張るつもりもない。</t>
   </si>
   <si>
-    <t xml:space="preserve">...Alirght, you got that, #pc?
+    <t xml:space="preserve">...Alright, you got that, #pc?
 Rest assured, I don't intend to burden you or hinder our base's development.</t>
   </si>
   <si>
@@ -4627,10 +4627,10 @@
   </sheetPr>
   <dimension ref="A1:N590"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L582" sqref="L582"/>
-      <selection pane="bottomLeft" activeCell="J359" sqref="J359"/>
+      <selection pane="bottomLeft" activeCell="K486" sqref="K486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
